--- a/TOFEL_写作_中级训练.xlsx
+++ b/TOFEL_写作_中级训练.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="859" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="859" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="家庭社会" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,8 @@
     <sheet name="作文练习-6" sheetId="6" r:id="rId6"/>
     <sheet name="7-economy+business" sheetId="2" r:id="rId7"/>
     <sheet name="生单词" sheetId="8" r:id="rId8"/>
-    <sheet name="TPO1-1" sheetId="10" r:id="rId9"/>
+    <sheet name="TPO1-Task1" sheetId="10" r:id="rId9"/>
+    <sheet name="TPO1-Task2" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'7-economy+business'!$A$4:$B$4</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t>写作练习</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6103,6 +6104,14 @@
 Secondly, the author of the passage points out that offering four-day workweek could decrease unemployment rates because less work time for an employee contribute to more job positions. While the lecture notes that four-day workweek could make work overtime, so there would be no more job positions.
 Lastly, opposing the author's belief that four-day workweek better for employees because four-day workweek enable employees improve the quality of their lives.
 The professor contends that four-day workweek could make a risk to employess that it may weak the employees' ability of jobs.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I agree with the statement that at universities and colleges, sports and social activities are just as important as classes and libraries and should receive equal financial support.
+First because sports and social activities would enable students to develop their practice ability. Nowadays, with the society development, the ability a corporation require an employee is higher than before. As a result, obtaining practice ability may be a key factor for students to find a good job when they graduate from universities. So practice ability is pretty crucial to a student's future develop.For example, my brother LiLei, he spend much time to be a volunteer after classes. Through joining volunteer organizations, he gain a lot to improve himself in real lives, such as organizing public welfare activities, communicating with people from society institutions to find financial supports. And he never got chances to practice himself like this in classes. As a result, he gain strong leadership and become good at communicating with others. After graduate from college, he easily found a good job at a charitable institution. 
+Second because students could become more outgoing and more good at teamwork through taking sports and social activities. Because these kind of activities often need a group of people do accomplish, every one who take part in these activities should work with others. As a result, sutdent could improve their teamwork ablity.For example, When I was in university I often played basketball. It enable me to get to know more people, you know, to make more friends. There are a lot of students and a lot of my classmates playing basketball. 
+So if universities and colleges give financial support on sports and social activities 
+activities just as well as classes and libraries, students would get more real benefits. so I agree with this statement.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6384,7 +6393,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1367">
+  <cellStyleXfs count="1385">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -7754,8 +7763,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7814,8 +7841,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1367">
+  <cellStyles count="1385">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -8499,6 +8529,15 @@
     <cellStyle name="超链接" xfId="1361" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1363" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1383" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -9181,6 +9220,15 @@
     <cellStyle name="访问过的超链接" xfId="1362" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1364" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1384" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
   </cellStyles>
@@ -9687,11 +9735,41 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="86.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="408">
+      <c r="B2" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
